--- a/-DOCUMENTATION-/Součástky.xlsx
+++ b/-DOCUMENTATION-/Součástky.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\GitHub\GM-Counter\-DOCUMENTATION-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5885B403-897F-41DB-9D12-D3B743EEC26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,206 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+  <si>
+    <t>Součástka</t>
+  </si>
+  <si>
+    <t>Počet</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>5ks</t>
+  </si>
+  <si>
+    <t>C 10n/1kV</t>
+  </si>
+  <si>
+    <t>C 100nF</t>
+  </si>
+  <si>
+    <t>1ks</t>
+  </si>
+  <si>
+    <t>3ks</t>
+  </si>
+  <si>
+    <t>C 270pF</t>
+  </si>
+  <si>
+    <t>C 1nF</t>
+  </si>
+  <si>
+    <t>D 1N4937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED </t>
+  </si>
+  <si>
+    <t>NE555</t>
+  </si>
+  <si>
+    <t>2ks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soucastky na V1 - 1 pokus. Vzit aspon 3x times. </t>
+  </si>
+  <si>
+    <t>pin header lista</t>
+  </si>
+  <si>
+    <t>L1 100uH  R like</t>
+  </si>
+  <si>
+    <t>L2 10mH C like</t>
+  </si>
+  <si>
+    <t>NPN 3904</t>
+  </si>
+  <si>
+    <t>NPN MPSA42</t>
+  </si>
+  <si>
+    <t>R 10M</t>
+  </si>
+  <si>
+    <t>7ks</t>
+  </si>
+  <si>
+    <t>R 470K</t>
+  </si>
+  <si>
+    <t>R 47K</t>
+  </si>
+  <si>
+    <t>1Ks</t>
+  </si>
+  <si>
+    <t>R 100K</t>
+  </si>
+  <si>
+    <t>R 3K nebo něco close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R 10K </t>
+  </si>
+  <si>
+    <t>R 33K</t>
+  </si>
+  <si>
+    <t>TRIMR 100R</t>
+  </si>
+  <si>
+    <t>pad na N555</t>
+  </si>
+  <si>
+    <t>drzak na pojistky</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +231,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -45,15 +292,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +826,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="77.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/-DOCUMENTATION-/Součástky.xlsx
+++ b/-DOCUMENTATION-/Součástky.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\GitHub\GM-Counter\-DOCUMENTATION-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5885B403-897F-41DB-9D12-D3B743EEC26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B90A5B-6348-461C-80AE-908BFE846102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>Součástka</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>drzak na pojistky</t>
+  </si>
+  <si>
+    <t>R 1K</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -534,7 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -830,7 +832,7 @@
   <dimension ref="C2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,25 +849,25 @@
     </row>
     <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="10"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -875,23 +877,23 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -901,10 +903,10 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -914,10 +916,10 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -927,10 +929,10 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -940,10 +942,10 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -953,10 +955,10 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -966,10 +968,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -979,10 +981,10 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -992,10 +994,10 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1005,10 +1007,10 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1018,10 +1020,10 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1031,10 +1033,10 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1044,10 +1046,10 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1057,10 +1059,10 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1070,10 +1072,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1083,10 +1085,10 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1096,10 +1098,10 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1109,10 +1111,10 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -1122,10 +1124,10 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1135,10 +1137,10 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1148,10 +1150,10 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1161,64 +1163,68 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4"/>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4"/>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="4"/>
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="4"/>
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="4"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="3"/>
